--- a/src/test/resources/script/db/2018-03-27-init-data.xlsx
+++ b/src/test/resources/script/db/2018-03-27-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\idea_work_workspace\gitlab\framework-group\iam-service\src\main\resources\script\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/iam-service/src/main/resources/script/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A640A4-D30E-3F4E-8546-C65A1C601EAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9375" tabRatio="987" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" tabRatio="411" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -18,31 +19,39 @@
     <sheet name="IAM_USER" sheetId="5" r:id="rId4"/>
     <sheet name="IAM_ROLE" sheetId="6" r:id="rId5"/>
     <sheet name="IAM_ROLE_LABEL" sheetId="17" r:id="rId6"/>
-    <sheet name="OAUTH_CLIENT" sheetId="7" r:id="rId7"/>
-    <sheet name="IAM_MEMBER_ROLE" sheetId="8" r:id="rId8"/>
-    <sheet name="FD_LANGUAGE" sheetId="10" r:id="rId9"/>
-    <sheet name="FD_LOOKUP" sheetId="11" r:id="rId10"/>
-    <sheet name="FD_LOOKUP_VALUE" sheetId="12" r:id="rId11"/>
-    <sheet name="OAUTH_LDAP" sheetId="15" r:id="rId12"/>
-    <sheet name="OAUTH_PASSWORD_POLICY" sheetId="16" r:id="rId13"/>
+    <sheet name="FD_PROJECT_TYPE" sheetId="18" r:id="rId7"/>
+    <sheet name="OAUTH_CLIENT" sheetId="7" r:id="rId8"/>
+    <sheet name="IAM_MEMBER_ROLE" sheetId="8" r:id="rId9"/>
+    <sheet name="FD_LANGUAGE" sheetId="10" r:id="rId10"/>
+    <sheet name="FD_LOOKUP" sheetId="11" r:id="rId11"/>
+    <sheet name="FD_LOOKUP_VALUE" sheetId="12" r:id="rId12"/>
+    <sheet name="OAUTH_LDAP" sheetId="15" r:id="rId13"/>
+    <sheet name="OAUTH_PASSWORD_POLICY" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="231">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
     </r>
@@ -51,6 +60,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -60,7 +70,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>！！
 发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
@@ -72,7 +81,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
     </r>
@@ -81,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -90,7 +99,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>页开始</t>
     </r>
@@ -99,6 +107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -108,7 +117,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
     </r>
@@ -117,6 +125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -126,7 +135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
 </t>
@@ -136,7 +144,6 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>同一个表的数据要连续</t>
     </r>
@@ -154,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FFF4B183"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">中间不能有空行
 </t>
@@ -173,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>页的名字不要包含空格</t>
     </r>
@@ -191,7 +196,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>中文等</t>
     </r>
@@ -202,7 +206,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>颜色示例</t>
     </r>
@@ -211,6 +214,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -220,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>非必须</t>
     </r>
@@ -229,6 +232,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -238,7 +242,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>非强制</t>
     </r>
@@ -247,6 +250,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -259,7 +263,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>请给特殊单元格</t>
     </r>
@@ -269,6 +272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -279,7 +283,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>列名添加颜色</t>
     </r>
@@ -289,6 +292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -299,7 +303,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>提高数据可读性</t>
     </r>
@@ -310,6 +313,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -319,7 +323,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>自动生成</t>
     </r>
@@ -330,6 +333,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -339,7 +343,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>唯一性检查</t>
     </r>
@@ -350,7 +353,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -359,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -368,7 +371,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -379,7 +381,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>理论上</t>
     </r>
@@ -388,6 +389,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -397,7 +399,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>表的前后顺序</t>
     </r>
@@ -406,6 +407,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -415,7 +417,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
     </r>
@@ -424,6 +425,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -433,7 +435,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
     </r>
@@ -442,6 +443,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -451,7 +453,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>减少迭代次数</t>
     </r>
@@ -460,6 +461,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -489,6 +491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -498,7 +501,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -507,6 +509,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -516,7 +519,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>该列的值自动生成</t>
     </r>
@@ -525,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -534,7 +537,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
     </r>
@@ -543,6 +545,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -552,7 +555,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
     </r>
@@ -563,7 +565,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>自增长</t>
     </r>
@@ -572,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -581,7 +583,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>或序列</t>
     </r>
@@ -590,6 +591,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -599,7 +601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>主键列</t>
     </r>
@@ -608,6 +609,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -618,7 +620,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>当不作为外键引用时</t>
     </r>
@@ -627,6 +628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -636,7 +638,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>一般写</t>
     </r>
@@ -645,6 +646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -655,7 +657,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>作为外键时</t>
     </r>
@@ -664,6 +665,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -673,7 +675,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>写可读的值</t>
     </r>
@@ -684,7 +685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
     </r>
@@ -693,6 +693,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -702,7 +703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>是序列</t>
     </r>
@@ -711,6 +711,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -720,7 +721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>其他自增涨</t>
     </r>
@@ -734,6 +734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -743,7 +744,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>前置</t>
     </r>
@@ -752,6 +752,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -761,7 +762,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>表中所有带有</t>
     </r>
@@ -770,6 +770,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -779,7 +780,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
     </r>
@@ -788,6 +788,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -797,7 +798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>在执行插入之前</t>
     </r>
@@ -806,6 +806,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -815,7 +816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
     </r>
@@ -826,7 +826,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>可以有多列</t>
     </r>
@@ -835,6 +834,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -844,7 +844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>仅支持</t>
     </r>
@@ -854,7 +853,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>数字</t>
     </r>
@@ -864,6 +862,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -874,7 +873,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">字符串
 </t>
@@ -884,7 +882,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>当</t>
     </r>
@@ -893,6 +890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -902,7 +900,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>列涉及到公式时</t>
     </r>
@@ -911,6 +908,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -920,7 +918,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>会先确定公式的值</t>
     </r>
@@ -934,6 +931,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -943,7 +941,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>指定这一列的类型</t>
     </r>
@@ -952,6 +949,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -961,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>默认会自动检测</t>
     </r>
@@ -970,6 +967,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -980,7 +978,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>结尾为数字</t>
     </r>
@@ -989,6 +986,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -999,7 +997,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>结尾为日期</t>
     </r>
@@ -1008,6 +1005,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1018,7 +1016,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>其他默认为</t>
     </r>
@@ -1027,6 +1024,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1038,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>一般不需要指定</t>
     </r>
@@ -1047,6 +1044,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1057,7 +1055,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>日期格式仅支持</t>
     </r>
@@ -1066,6 +1063,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1082,6 +1080,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1091,7 +1090,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>指定语言环境</t>
     </r>
@@ -1102,6 +1100,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1111,7 +1110,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>表数据不需要专门写</t>
     </r>
@@ -1122,7 +1120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>外键引用</t>
     </r>
@@ -1131,6 +1128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1140,7 +1138,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>公式</t>
     </r>
@@ -1149,12 +1146,118 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于引用外键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也可用于普通值
+目前不支持特别复杂的公式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动增长列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果被公式引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最好写一个人可以读懂的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增强公式可读性</t>
+    </r>
+  </si>
+  <si>
     <t>关于公式的说明</t>
   </si>
   <si>
@@ -1163,7 +1266,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
     </r>
@@ -1172,6 +1274,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1181,7 +1284,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
     </r>
@@ -1190,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1199,7 +1302,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>支持的标准公式</t>
     </r>
@@ -1208,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1217,7 +1320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
     </r>
@@ -1226,6 +1328,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1235,7 +1338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>比如范围计算</t>
     </r>
@@ -1250,7 +1352,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1259,7 +1360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1268,6 +1368,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1277,7 +1378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1292,7 +1392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1301,7 +1400,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
     </r>
@@ -1310,6 +1408,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1319,7 +1418,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1333,7 +1431,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1342,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1351,7 +1449,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1360,6 +1457,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1369,7 +1467,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1378,6 +1475,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1388,7 +1486,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1397,6 +1494,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1411,7 +1509,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
     </r>
@@ -1420,6 +1517,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1429,7 +1527,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
     </r>
@@ -1438,6 +1535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1447,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>单元格</t>
     </r>
@@ -1456,6 +1553,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1466,7 +1564,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1475,6 +1572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1486,7 +1584,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1496,7 +1593,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>相对</t>
     </r>
@@ -1505,7 +1601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1516,7 +1611,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>举例</t>
     </r>
@@ -1525,6 +1619,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1534,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">当 </t>
     </r>
@@ -1543,6 +1637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1552,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
     </r>
@@ -1561,6 +1655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1570,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">时
 将 </t>
@@ -1580,6 +1674,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1589,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1598,6 +1692,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1607,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>单元格时</t>
     </r>
@@ -1616,6 +1710,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1625,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
     </r>
@@ -1634,6 +1728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1644,7 +1739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">将 </t>
     </r>
@@ -1653,6 +1747,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1662,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
     </r>
@@ -1671,6 +1765,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1680,7 +1775,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>时</t>
     </r>
@@ -1689,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1698,7 +1793,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
     </r>
@@ -1707,6 +1801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1717,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
     </r>
@@ -1728,7 +1822,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>关于</t>
     </r>
@@ -1738,7 +1831,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>绝对</t>
     </r>
@@ -1747,7 +1839,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>引用</t>
     </r>
@@ -1758,7 +1849,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>复制公式单元格时</t>
     </r>
@@ -1767,6 +1857,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1776,7 +1867,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>保持公式不变</t>
     </r>
@@ -1787,7 +1877,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>相对引用</t>
     </r>
@@ -1796,6 +1885,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1805,7 +1895,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>绝对引用各有用途</t>
     </r>
@@ -1814,6 +1903,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1824,27 +1914,164 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP Regular"/>
-        <family val="1"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
   </si>
   <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>FD_ORGANIZATION</t>
+  </si>
+  <si>
+    <t>*ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>#CODE</t>
+  </si>
+  <si>
+    <t>IS_ENABLED</t>
+  </si>
+  <si>
+    <t>运营组织</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>IAM_LABEL</t>
+  </si>
+  <si>
+    <t>#NAME</t>
+  </si>
+  <si>
+    <t>#TYPE</t>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>project.owner</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>项目所有者</t>
+  </si>
+  <si>
+    <t>organization.owner</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>组织所有者</t>
+  </si>
+  <si>
+    <t>organization.gitlab.owner</t>
+  </si>
+  <si>
+    <t>组织层gitlab所有者</t>
+  </si>
+  <si>
+    <t>project.gitlab.developer</t>
+  </si>
+  <si>
+    <t>gitlab开发者</t>
+  </si>
+  <si>
+    <t>organization.wiki.admin</t>
+  </si>
+  <si>
+    <t>组织层wiki管理员</t>
+  </si>
+  <si>
+    <t>organization.wiki.user</t>
+  </si>
+  <si>
+    <t>组织层wiki用户</t>
+  </si>
+  <si>
+    <t>project.wiki.admin</t>
+  </si>
+  <si>
+    <t>项目层wiki管理员</t>
+  </si>
+  <si>
+    <t>project.wiki.user</t>
+  </si>
+  <si>
+    <t>项目层wiki用户</t>
+  </si>
+  <si>
+    <t>project.gitlab.owner</t>
+  </si>
+  <si>
+    <t>项目层gitlab所有者</t>
+  </si>
+  <si>
+    <t>project.deploy.admin</t>
+  </si>
+  <si>
+    <t>gitlab部署管理员</t>
+  </si>
+  <si>
+    <t>site.admin</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>全局层管理员</t>
+  </si>
+  <si>
+    <t>IAM_USER</t>
+  </si>
+  <si>
+    <t>#LOGIN_NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>TIME_ZONE</t>
+  </si>
+  <si>
+    <t>ORGANIZATION_ID</t>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+  </si>
+  <si>
+    <t>IS_ADMIN</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>$2a$10$nMyyMGXbmsipIb/E4b8EuePo1vkVKKWsxXHUpDch5gisNOJOCuLL6</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>作者</t>
-  </si>
-  <si>
-    <t>表</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>admin@example.org</t>
   </si>
   <si>
@@ -1857,146 +2084,259 @@
     <t>管理员</t>
   </si>
   <si>
+    <t>IAM_ROLE</t>
+  </si>
+  <si>
+    <t>NAME:zh_CN</t>
+  </si>
+  <si>
+    <t>NAME:en_US</t>
+  </si>
+  <si>
+    <t>IS_BUILT_IN</t>
+  </si>
+  <si>
+    <t>IS_MODIFIED</t>
+  </si>
+  <si>
+    <t>IS_ASSIGNABLE</t>
+  </si>
+  <si>
+    <t>IS_ENABLE_FORBIDDEN</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>平台管理员</t>
+  </si>
+  <si>
+    <t>Site Administrator</t>
+  </si>
+  <si>
+    <t>role/orgainzation/default/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>组织管理员</t>
+  </si>
+  <si>
+    <t>Organization Administrator</t>
+  </si>
+  <si>
+    <t>role/project/default/administrator</t>
+  </si>
+  <si>
+    <t>项目管理员</t>
+  </si>
+  <si>
+    <t>Project Administrator</t>
+  </si>
+  <si>
+    <t>role/project/default/deploy-administrator</t>
+  </si>
+  <si>
+    <t>部署管理员</t>
+  </si>
+  <si>
+    <t>Deploy Administrator</t>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+  </si>
+  <si>
+    <t>项目成员</t>
+  </si>
+  <si>
+    <t>Project Member</t>
+  </si>
+  <si>
+    <t>role/project/default/project-owner</t>
+  </si>
+  <si>
+    <t>Project Owner</t>
+  </si>
+  <si>
+    <t>role/organization/default/organization-member</t>
+  </si>
+  <si>
+    <t>组织成员</t>
+  </si>
+  <si>
+    <t>Organization Member</t>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+  </si>
+  <si>
+    <t>平台开发者</t>
+  </si>
+  <si>
+    <t>Site Developer</t>
+  </si>
+  <si>
+    <t>IAM_ROLE_LABEL</t>
+  </si>
+  <si>
+    <t>#ROLE_ID</t>
+  </si>
+  <si>
+    <t>#LABEL_ID</t>
+  </si>
+  <si>
+    <t>organization administrator</t>
+  </si>
+  <si>
+    <t>organization wiki admin</t>
+  </si>
+  <si>
+    <t>organization wiki user</t>
+  </si>
+  <si>
+    <t>project administrator</t>
+  </si>
+  <si>
+    <t>project wiki admin</t>
+  </si>
+  <si>
+    <t>project wiki user</t>
+  </si>
+  <si>
+    <t>project owner</t>
+  </si>
+  <si>
+    <t>project member</t>
+  </si>
+  <si>
+    <t>project deploy admin</t>
+  </si>
+  <si>
+    <t>site admin</t>
+  </si>
+  <si>
+    <t>FD_PROJECT_TYPE</t>
+  </si>
+  <si>
+    <t>type/research-technology</t>
+  </si>
+  <si>
+    <t>研发-技术研究</t>
+  </si>
+  <si>
+    <t>技术探索性研究。</t>
+  </si>
+  <si>
+    <t>type/develop-platform</t>
+  </si>
+  <si>
+    <t>研发-平台研发</t>
+  </si>
+  <si>
+    <t>type/develop-product</t>
+  </si>
+  <si>
+    <t>研发-产品研发</t>
+  </si>
+  <si>
+    <t>产品研发。</t>
+  </si>
+  <si>
+    <t>type/implement-project</t>
+  </si>
+  <si>
+    <t>实施-项目实施</t>
+  </si>
+  <si>
+    <t>type/operate-project</t>
+  </si>
+  <si>
+    <t>运维-项目运维</t>
+  </si>
+  <si>
+    <t>type/delivery-product</t>
+  </si>
+  <si>
+    <t>交付-产品交付</t>
+  </si>
+  <si>
+    <t>type/operate-product</t>
+  </si>
+  <si>
+    <t>运维-产品运维</t>
+  </si>
+  <si>
+    <t>type/others</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>OAUTH_CLIENT</t>
+  </si>
+  <si>
+    <t>RESOURCE_IDS</t>
+  </si>
+  <si>
+    <t>SECRET</t>
+  </si>
+  <si>
+    <t>SCOPE</t>
+  </si>
+  <si>
+    <t>AUTHORIZED_GRANT_TYPES</t>
+  </si>
+  <si>
+    <t>AUTO_APPROVE</t>
+  </si>
+  <si>
+    <t>WEB_SERVER_REDIRECT_URI</t>
+  </si>
+  <si>
     <t>client</t>
   </si>
   <si>
-    <t>Site Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于引用外键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>也可用于普通值
-目前不支持特别复杂的公式</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自动增长列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果被公式引用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最好写一个人可以读懂的值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增强公式可读性</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <t>default</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>http://localhost:9090</t>
+  </si>
+  <si>
+    <t>IAM_MEMBER_ROLE</t>
+  </si>
+  <si>
+    <t>#MEMBER_ID</t>
+  </si>
+  <si>
+    <t>#MEMBER_TYPE</t>
+  </si>
+  <si>
+    <t>#SOURCE_ID</t>
+  </si>
+  <si>
+    <t>#SOURCE_TYPE</t>
   </si>
   <si>
     <t>user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营组织</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营组织</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_LANGUAGE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION:zh_CN</t>
+  </si>
+  <si>
+    <t>DESCRIPTION:en_US</t>
   </si>
   <si>
     <t>简体中文</t>
@@ -2020,7 +2360,7 @@
     <t>English(US)</t>
   </si>
   <si>
-    <t>TIME_ZONE</t>
+    <t>FD_LOOKUP</t>
   </si>
   <si>
     <t>时区</t>
@@ -2029,6 +2369,12 @@
     <t>Time Zone</t>
   </si>
   <si>
+    <t>FD_LOOKUP_VALUE</t>
+  </si>
+  <si>
+    <t>LOOKUP_ID</t>
+  </si>
+  <si>
     <t>EST</t>
   </si>
   <si>
@@ -2044,635 +2390,36 @@
     <t>Asia/Shanghai</t>
   </si>
   <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <t>OAUTH_LDAP</t>
+  </si>
+  <si>
+    <t>#ORGANIZATION_ID</t>
+  </si>
+  <si>
+    <t>SERVER_ADDRESS</t>
+  </si>
+  <si>
+    <t>OBJECT_CLASS</t>
+  </si>
+  <si>
+    <t>DIRECTORY_TYPE</t>
   </si>
   <si>
     <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.owner</t>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/orgainzation/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deploy Administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/deploy-administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/project-member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/project/default/project-owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost</t>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>client</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>localhost</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>password,implicit,client_credentials,authorization_code,refresh_token</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:9090</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project administrator</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>please edit</t>
   </si>
   <si>
     <t>person</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>please edit</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.wiki.admin</t>
-  </si>
-  <si>
-    <t>organization.wiki.user</t>
-  </si>
-  <si>
-    <t>project.wiki.admin</t>
-  </si>
-  <si>
-    <t>project.wiki.user</t>
-  </si>
-  <si>
-    <t>organization wiki admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization wiki user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project wiki admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project wiki user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/organization/default/organization-member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织成员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization Member</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.gitlab.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization.gitlab.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.gitlab.owner</t>
-  </si>
-  <si>
-    <t>project.gitlab.owner</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.gitlab.developer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.gitlab.developer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织层gitlab所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitlab开发者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织层wiki管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织层wiki用户</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目层wiki管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目层wiki用户</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目层gitlab所有者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project.deploy.admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitlab部署管理员</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>project deploy admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>role/site/default/developer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台开发者</t>
-  </si>
-  <si>
-    <t>Site Developer</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_ORGANIZATION</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_ENABLED</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_LABEL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TYPE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_LEVEL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_USER</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#LOGIN_NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME_ZONE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORGANIZATION_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_ADMIN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_ROLE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME:zh_CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME:en_US</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_MODIFIED</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_BUILT_IN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_ASSIGNABLE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_ENABLE_FORBIDDEN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_LEVEL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ROLE_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#LABEL_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_ROLE_LABEL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>OAUTH_CLIENT</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESOURCE_IDS</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>SECRET</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCOPE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHORIZED_GRANT_TYPES</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_APPROVE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORGANIZATION_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB_SERVER_REDIRECT_URI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_MEMBER_ROLE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ROLE_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#MEMBER_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#MEMBER_TYPE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOURCE_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SOURCE_TYPE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_LANGUAGE</t>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION:en_US</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION:zh_CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION:en_US</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION:zh_CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_LOOKUP</t>
-  </si>
-  <si>
-    <t>FD_LOOKUP_VALUE</t>
-  </si>
-  <si>
-    <t>LOOKUP_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPTION:zh_CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>OAUTH_LDAP</t>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ORGANIZATION_ID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>SERVER_ADDRESS</t>
-  </si>
-  <si>
-    <t>OBJECT_CLASS</t>
+  </si>
+  <si>
+    <t>OpenLDAP</t>
   </si>
   <si>
     <t>OAUTH_PASSWORD_POLICY</t>
   </si>
   <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>ENABLE_CAPTCHA</t>
   </si>
   <si>
@@ -2689,16 +2436,72 @@
   </si>
   <si>
     <t>LOCKED_EXPIRE_TIME</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术平台、框架型研发。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>各部门各自推行的项目运维。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>各部门各自推行的项目实施。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目或产品完成后向交付方交接交接物</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计-数据分析</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>对项目产生的数据进行分心</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>对产品进行维护</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/research-technology</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>type/research-statistics</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASH_PASSWORD</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAP_PASSWORD</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2709,32 +2512,33 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <name val="Noto Sans CJK JP Regular"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2758,32 +2562,44 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK JP Regular"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF4B183"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2801,52 +2617,31 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="Noto Sans CJK JP Regular"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP Regular"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2893,28 +2688,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2939,12 +2718,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2956,20 +2753,18 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2987,157 +2782,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3474,68 +3275,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="9.75" style="13"/>
-    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2"/>
-    <col min="5" max="1025" width="9.75"/>
+    <col min="1" max="2" width="9" style="17"/>
+    <col min="3" max="3" width="100.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="C1" s="43" t="s">
+    <row r="1" spans="1:8" ht="64" customHeight="1">
+      <c r="A1" s="18"/>
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="D2"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="49" customHeight="1">
       <c r="A3"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.5">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" ht="34">
       <c r="A4"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="18"/>
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D5"/>
@@ -3544,44 +3344,44 @@
       <c r="D6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" ht="157.5">
-      <c r="C9" s="19" t="s">
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" ht="187">
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="204.75">
-      <c r="C10" s="21" t="s">
+    <row r="10" spans="1:8" ht="221">
+      <c r="C10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3589,46 +3389,46 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="85.5" customHeight="1">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="32" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25">
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="1:8" ht="51">
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" ht="118.5">
-      <c r="C15" s="22" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="147">
+      <c r="C15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>58</v>
+      <c r="D15" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3638,74 +3438,74 @@
       <c r="D17"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="12" t="s">
-        <v>27</v>
+      <c r="C18" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="D18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="C19" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>30</v>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>32</v>
+      <c r="C21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>34</v>
+      <c r="C22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>36</v>
+      <c r="C23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="D24"/>
     </row>
     <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="42"/>
+      <c r="C25" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="3:5" ht="31.5">
-      <c r="C27" s="26" t="s">
+      <c r="C26" s="29" t="s">
         <v>41</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="3:5" ht="34">
+      <c r="C27" s="41" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3718,281 +3518,390 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="8.5" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="D7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="E8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="E9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="D7:I8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="I7" s="39"/>
+        <v>191</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="4:9">
-      <c r="D8" s="39"/>
-      <c r="E8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="39"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="D7:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
-      <c r="D7" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="J7" s="39"/>
+      <c r="D7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="4:10">
-      <c r="D8" s="39"/>
-      <c r="E8" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="39" t="str">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="39"/>
+      <c r="H8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="39" t="str">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f>FD_LOOKUP!E8</f>
         <v>TIME_ZONE</v>
       </c>
-      <c r="H9" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="39"/>
+      <c r="H9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:9">
-      <c r="D7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9">
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="D7:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:12">
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12">
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="D7:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="L7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="M7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="N7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4017,76 +3926,73 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="9.75"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.75"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="9.75"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="D7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>171</v>
+        <v>47</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="E8" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="E8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -4097,315 +4003,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D7:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="6" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="8.875"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="77.625" customWidth="1"/>
-    <col min="8" max="8" width="24.375"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875"/>
-    <col min="13" max="13" width="10.75" customWidth="1"/>
-    <col min="14" max="1024" width="8.875"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="77.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>182</v>
+      <c r="A7" s="12"/>
+      <c r="D7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>187</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="Q7" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="6"/>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>47</v>
+      <c r="A8" s="12"/>
+      <c r="E8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="K8" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -4415,12 +4334,12 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="H9" s="11"/>
+      <c r="H9" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -4428,78 +4347,78 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B7:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="8.875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="43.25" customWidth="1"/>
-    <col min="6" max="6" width="44.25" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" customWidth="1"/>
+    <col min="6" max="6" width="44.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="36.5" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14">
-      <c r="D7" s="5" t="s">
-        <v>188</v>
+    <row r="7" spans="4:14" ht="17">
+      <c r="D7" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="4:14">
       <c r="E8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4517,21 +4436,21 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="4:14">
       <c r="E9" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4549,21 +4468,21 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="4:14">
       <c r="E10" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4578,24 +4497,24 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="4:14">
       <c r="E11" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4610,24 +4529,24 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="4:14">
       <c r="E12" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4645,21 +4564,21 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="4:14">
       <c r="E13" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4677,21 +4596,21 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="4:14">
       <c r="E14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4709,21 +4628,21 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="4:14">
       <c r="E15" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4741,11 +4660,11 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -4756,58 +4675,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="D7:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="39.125" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="4:9">
       <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="2" t="str">
+        <v>133</v>
+      </c>
+      <c r="F8" s="6" t="str">
         <f>IAM_ROLE!E9</f>
         <v>role/orgainzation/default/administrator</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="6" t="str">
         <f>IAM_LABEL!E10</f>
         <v>organization.gitlab.owner</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="4:9">
       <c r="E9" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F9" t="str">
         <f>IAM_ROLE!E9</f>
@@ -4820,7 +4739,7 @@
     </row>
     <row r="10" spans="4:9">
       <c r="E10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F10" t="str">
         <f>IAM_ROLE!E9</f>
@@ -4833,7 +4752,7 @@
     </row>
     <row r="11" spans="4:9">
       <c r="E11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F11" t="str">
         <f>IAM_ROLE!E14</f>
@@ -4846,7 +4765,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="E12" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F12" t="str">
         <f>IAM_ROLE!E10</f>
@@ -4859,7 +4778,7 @@
     </row>
     <row r="13" spans="4:9">
       <c r="E13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F13" t="str">
         <f>IAM_ROLE!E13</f>
@@ -4872,7 +4791,7 @@
     </row>
     <row r="14" spans="4:9">
       <c r="E14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F14" t="str">
         <f>IAM_ROLE!E12</f>
@@ -4885,7 +4804,7 @@
     </row>
     <row r="15" spans="4:9">
       <c r="E15" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F15" t="str">
         <f>IAM_ROLE!E13</f>
@@ -4898,7 +4817,7 @@
     </row>
     <row r="16" spans="4:9">
       <c r="E16" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F16" t="str">
         <f>IAM_ROLE!E13</f>
@@ -4911,7 +4830,7 @@
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F17" t="str">
         <f>IAM_ROLE!E12</f>
@@ -4924,7 +4843,7 @@
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F18" t="str">
         <f>IAM_ROLE!E11</f>
@@ -4937,7 +4856,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F19" t="str">
         <f>IAM_ROLE!E11</f>
@@ -4948,144 +4867,316 @@
         <v>project.owner</v>
       </c>
     </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IAM_ROLE!E8</f>
+        <v>role/site/default/administrator</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IAM_LABEL!E18</f>
+        <v>site.admin</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="D7:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8" ht="17">
+      <c r="D7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="E14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="E16" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.75"/>
-    <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="3" max="3" width="9.75" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.75"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.75"/>
-    <col min="10" max="10" width="26.5"/>
-    <col min="11" max="11" width="14.125"/>
-    <col min="12" max="12" width="14.625"/>
-    <col min="13" max="13" width="23.25" customWidth="1"/>
-    <col min="14" max="1025" width="9.75"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="D7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>111</v>
+      <c r="E8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="L8" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14">
       <c r="E9" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="L9" t="str">
         <f>FD_ORGANIZATION!E8</f>
         <v>运营组织</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -5095,48 +5186,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D7:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="9.75"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="35.25"/>
-    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="9.75"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>215</v>
+        <v>175</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="J7" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -5153,13 +5241,13 @@
         <v>admin</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="4:10">
@@ -5176,13 +5264,13 @@
         <v>admin</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="4:10">
@@ -5199,111 +5287,22 @@
         <v>admin</v>
       </c>
       <c r="H10" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="3" width="8.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="21" style="39" customWidth="1"/>
-    <col min="10" max="1025" width="8.5" style="39" customWidth="1"/>
-    <col min="1026" max="16384" width="8.875" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="D7" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="E8" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="E9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>